--- a/Code/Polygons_analysis/Boston_MA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Boston_MA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -571,205 +571,205 @@
         <v>0.1803748760727046</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0528497490354027</v>
+        <v>0.05284974902850315</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.01717742499279402</v>
+        <v>-0.0171774250045142</v>
       </c>
       <c r="P2" t="n">
         <v>0.0267501242003713</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06007459955542935</v>
+        <v>0.06007459956443055</v>
       </c>
       <c r="R2" t="n">
         <v>0.5740527300603673</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4074675749160571</v>
+        <v>0.4074675749161063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.479402335728494</v>
+        <v>0.1539831909241825</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.347453131032631</v>
+        <v>0.1570395562212362</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03513932966907243</v>
+        <v>0.1574251668364718</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4543255530189985</v>
+        <v>0.1680698020824032</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.402410943209817</v>
+        <v>-0.03229198732089134</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.365865695201662</v>
+        <v>-0.1252109421594723</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.805189483746851</v>
+        <v>0.1264521346735943</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6218561034826745</v>
+        <v>0.1630915400964356</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4630335280697996</v>
+        <v>0.1622053008041269</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.394282892499793</v>
+        <v>-0.1163730673888622</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7931879561039862</v>
+        <v>-0.3514511391055546</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.464667965579856</v>
+        <v>0.1071707754658908</v>
       </c>
       <c r="N3" t="n">
-        <v>1.477123199610209</v>
+        <v>0.05694031465221283</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5700048167105962</v>
+        <v>0.05289646324405315</v>
       </c>
       <c r="P3" t="n">
-        <v>2.318909287872847</v>
+        <v>0.1230770982221733</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.5605330719356304</v>
+        <v>0.001132739662908861</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8826004387004736</v>
+        <v>0.03045925173311452</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.5212825751900152</v>
+        <v>0.01035629175889621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.590861584097206</v>
+        <v>-1.479402335728494</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6381311333039668</v>
+        <v>-1.347453131032631</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6338736465362689</v>
+        <v>-0.03513932966907243</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6486892091440499</v>
+        <v>-0.4543255530189985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2351850544529243</v>
+        <v>-1.402410943209817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4452997341171813</v>
+        <v>-1.365865695201662</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5429544015110537</v>
+        <v>-2.805189483746851</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6504841845884407</v>
+        <v>-0.6218561034826745</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6398537673496822</v>
+        <v>-0.4630335280697996</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4101919998528494</v>
+        <v>-1.394282892499793</v>
       </c>
       <c r="L4" t="n">
-        <v>1.490793232538119</v>
+        <v>-0.7931879561039862</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.4602198234540618</v>
+        <v>-2.464667965579856</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2813413922978757</v>
+        <v>1.477123199583656</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.238470886533563</v>
+        <v>0.5700048166763616</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.58079804891106</v>
+        <v>2.318909287872847</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.005601762016351382</v>
+        <v>-0.5605330719485003</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2372215230673341</v>
+        <v>0.8826004387004736</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1009923618472272</v>
+        <v>-0.5212825751900252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1539831909241825</v>
+        <v>-0.590861584097206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1570395562212362</v>
+        <v>-0.6381311333039668</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1574251668364718</v>
+        <v>-0.6338736465362689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1680698020824032</v>
+        <v>-0.6486892091440499</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03229198732089134</v>
+        <v>0.2351850544529243</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1252109421594723</v>
+        <v>0.4452997341171813</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1264521346735943</v>
+        <v>-0.5429544015110537</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1630915400964356</v>
+        <v>-0.6504841845884407</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1622053008041269</v>
+        <v>-0.6398537673496822</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1163730673888622</v>
+        <v>0.4101919998528494</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3514511391055546</v>
+        <v>1.490793232538119</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1071707754658908</v>
+        <v>-0.4602198234540618</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05694031465159385</v>
+        <v>-0.2813413922990625</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0528964632432905</v>
+        <v>-0.2384708865345014</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1230770982221733</v>
+        <v>-0.58079804891106</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001132739663442647</v>
+        <v>-0.005601762015228856</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03045925173311452</v>
+        <v>-0.2372215230673341</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01035629175890389</v>
+        <v>-0.1009923618471999</v>
       </c>
     </row>
   </sheetData>
@@ -1064,58 +1064,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2792751384946665</v>
+        <v>0.2792751384949849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.492251443130755</v>
+        <v>0.4922514431307395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4923637594653714</v>
+        <v>0.4923637594653359</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3554143904272821</v>
+        <v>0.3554143904274593</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4823466212982305</v>
+        <v>-0.4823466212971595</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.249433465705139</v>
+        <v>-0.249433465705684</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2729284881547631</v>
+        <v>0.2729284881544871</v>
       </c>
       <c r="I2" t="n">
-        <v>0.51185127508013</v>
+        <v>0.5118512750800516</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4818686899514477</v>
+        <v>0.4818686899513152</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2228311361572314</v>
+        <v>-0.2228311361576175</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2038412525578726</v>
+        <v>-0.2038412525579332</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2733497760972666</v>
+        <v>0.2733497760974952</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1960670613090435</v>
+        <v>0.1960670613100163</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1163074876622915</v>
+        <v>0.1163074876608906</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2390832217170173</v>
+        <v>0.2390832217180083</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0779395159225363</v>
+        <v>0.07793951591985444</v>
       </c>
       <c r="R2" t="n">
-        <v>1.017669166882125</v>
+        <v>1.017669166882384</v>
       </c>
       <c r="S2" t="n">
-        <v>1.509607387658458</v>
+        <v>1.509607387658557</v>
       </c>
     </row>
     <row r="3">
@@ -1125,58 +1125,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.342915244823259</v>
+        <v>-1.342915244823756</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.180144915309236</v>
+        <v>-1.180144915309305</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.290852543908473</v>
+        <v>-1.290852543908432</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.467301991004134</v>
+        <v>-1.467301991004322</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4891932720152307</v>
+        <v>-0.4891932720173232</v>
       </c>
       <c r="G3" t="n">
-        <v>1.356481527215619</v>
+        <v>1.356481527216806</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01089805968994265</v>
+        <v>0.01089805969027924</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.215538141817844</v>
+        <v>-1.215538141817653</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.307726979946122</v>
+        <v>-1.307726979945985</v>
       </c>
       <c r="K3" t="n">
-        <v>1.31950595980565</v>
+        <v>1.319505959806605</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42378240832631</v>
+        <v>1.423782408326038</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.2218939185343499</v>
+        <v>-0.2218939185347087</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.142143862467885</v>
+        <v>-1.142143862474374</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.8738810189628038</v>
+        <v>-0.8738810189750061</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.459975811627489</v>
+        <v>-1.459975811631186</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08039283325520129</v>
+        <v>0.08039283325651989</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6091967734151087</v>
+        <v>0.609196773414639</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3216422043862899</v>
+        <v>0.321642204386189</v>
       </c>
     </row>
     <row r="4">
@@ -1186,58 +1186,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5259335972145884</v>
+        <v>-0.5259335972145075</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.747600072153871</v>
+        <v>-0.7476000721538391</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6681214929114976</v>
+        <v>-0.6681214929115707</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5552840428266884</v>
+        <v>-0.5552840428266882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.525745123644221</v>
+        <v>0.5257451236444108</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07758665250920851</v>
+        <v>0.07758665250912586</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7270196548910524</v>
+        <v>-0.7270196548908843</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7407417377829912</v>
+        <v>-0.7407417377830406</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.688953800977492</v>
+        <v>-0.6889538009774561</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06150207024569205</v>
+        <v>0.06150207024557309</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2737156597971647</v>
+        <v>0.2737156597969187</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.6115193922529933</v>
+        <v>-0.6115193922530027</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1715688992112247</v>
+        <v>-0.1715688992117685</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03110758747891268</v>
+        <v>0.03110758748064215</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2603848556893843</v>
+        <v>-0.2603848556898412</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05058822562352619</v>
+        <v>0.05058822562465007</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.6100018441627182</v>
+        <v>-0.6100018441627885</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.3084269123841257</v>
+        <v>-0.308426912383977</v>
       </c>
     </row>
     <row r="5">
@@ -1247,58 +1247,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.204075300942793</v>
+        <v>-1.20407530094199</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.197603942523361</v>
+        <v>-1.197603942521592</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.633034105051744</v>
+        <v>-1.633034105052299</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.085423787614272</v>
+        <v>-2.085423787615728</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.008536362019146</v>
+        <v>-3.008536362019303</v>
       </c>
       <c r="G5" t="n">
-        <v>11.69455968604144</v>
+        <v>11.69455968604137</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.024536348510993</v>
+        <v>-2.024536348513924</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.03533509957157</v>
+        <v>-2.035335099572989</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.91262922502593</v>
+        <v>-1.912629225026564</v>
       </c>
       <c r="K5" t="n">
-        <v>11.87662121007234</v>
+        <v>11.8766212100703</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.7024458195813246</v>
+        <v>-0.7024458195773092</v>
       </c>
       <c r="M5" t="n">
-        <v>-7.629410863560405</v>
+        <v>-7.629410863561295</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.917995695878703</v>
+        <v>-4.91799569587381</v>
       </c>
       <c r="O5" t="n">
-        <v>-6.262624956998626</v>
+        <v>-6.262624957039483</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.074066157268205</v>
+        <v>-3.074066157254096</v>
       </c>
       <c r="Q5" t="n">
-        <v>-3.36083929791514</v>
+        <v>-3.360839297914144</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.4590765808398031</v>
+        <v>-0.4590765808386912</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.8033467469400045</v>
+        <v>-0.8033467469414746</v>
       </c>
     </row>
     <row r="6">
@@ -1308,58 +1308,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.352703938727619</v>
+        <v>-1.352703938726083</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7784869033996272</v>
+        <v>-0.7784869033973857</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5405040403124198</v>
+        <v>-0.5405040403133161</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.089152107160664</v>
+        <v>-1.089152107161964</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.662843940878338</v>
+        <v>-1.66284394087761</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1757093341899718</v>
+        <v>0.1757093341918575</v>
       </c>
       <c r="H6" t="n">
-        <v>1.061642870281859</v>
+        <v>1.061642870281027</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4708189042708097</v>
+        <v>-0.4708189042718786</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.5689096640850194</v>
+        <v>-0.5689096640855607</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08831383241417583</v>
+        <v>0.08831383241479432</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.07893096213697857</v>
+        <v>-0.07893096213779131</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7879783212279721</v>
+        <v>0.7879783212267302</v>
       </c>
       <c r="N6" t="n">
-        <v>2.680428035806096</v>
+        <v>2.680428035806061</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.835403482894735</v>
+        <v>-2.835403482880978</v>
       </c>
       <c r="P6" t="n">
-        <v>1.771277723159965</v>
+        <v>1.771277723155338</v>
       </c>
       <c r="Q6" t="n">
-        <v>-3.554055061600792</v>
+        <v>-3.55405506159899</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8072750433890606</v>
+        <v>0.8072750433957436</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3475232478430061</v>
+        <v>-0.3475232478463807</v>
       </c>
     </row>
     <row r="7">
@@ -1369,58 +1369,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.317297490985479</v>
+        <v>-0.3172974909863359</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2328727167945056</v>
+        <v>-0.2328727167954312</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3908887611902183</v>
+        <v>-0.3908887611897342</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4206356986445451</v>
+        <v>-0.4206356986440856</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08847007475000389</v>
+        <v>-0.08847007475034567</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0532519425336496</v>
+        <v>0.05325194253301449</v>
       </c>
       <c r="H7" t="n">
-        <v>0.845432531764194</v>
+        <v>0.8454325317644981</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2862738865103978</v>
+        <v>-0.2862738865098914</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3718445076615965</v>
+        <v>-0.3718445076613019</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05540495479908665</v>
+        <v>0.05540495479902326</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4475489501515024</v>
+        <v>-0.4475489501506633</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9133155011002633</v>
+        <v>0.9133155011006577</v>
       </c>
       <c r="N7" t="n">
-        <v>0.191121030950395</v>
+        <v>0.1911210309501502</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3323052546893375</v>
+        <v>0.3323052546839653</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4596429784132002</v>
+        <v>0.4596429784159011</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3175295114201687</v>
+        <v>0.317529511416431</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1661699767932147</v>
+        <v>0.1661699767910332</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.5263404317094993</v>
+        <v>-0.5263404317086118</v>
       </c>
     </row>
     <row r="8">
@@ -1430,58 +1430,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.923077252205622</v>
+        <v>1.923077252205238</v>
       </c>
       <c r="C8" t="n">
-        <v>2.269671462962743</v>
+        <v>2.269671462962834</v>
       </c>
       <c r="D8" t="n">
-        <v>2.382028736574961</v>
+        <v>2.382028736575133</v>
       </c>
       <c r="E8" t="n">
-        <v>2.202359262218831</v>
+        <v>2.202359262218522</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.910452479472897</v>
+        <v>-0.9104524794739831</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.857136907791515</v>
+        <v>-0.8571369077908368</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6136325098075394</v>
+        <v>0.613632509807272</v>
       </c>
       <c r="I8" t="n">
-        <v>2.401732175982409</v>
+        <v>2.401732175982485</v>
       </c>
       <c r="J8" t="n">
-        <v>2.383995230896938</v>
+        <v>2.383995230896953</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.8207686859015412</v>
+        <v>-0.820768685900979</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.275006158703747</v>
+        <v>-0.2750061587025012</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5035876062229252</v>
+        <v>0.5035876062225636</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5477133283993505</v>
+        <v>0.5477133284030351</v>
       </c>
       <c r="O8" t="n">
-        <v>0.18648411609111</v>
+        <v>0.1864841160952393</v>
       </c>
       <c r="P8" t="n">
-        <v>0.598139841675034</v>
+        <v>0.5981398416766006</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1992358226308004</v>
+        <v>-0.1992358226296361</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7822415895868557</v>
+        <v>0.7822415895873728</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4785670657835778</v>
+        <v>0.4785670657829008</v>
       </c>
     </row>
     <row r="9">
@@ -1491,58 +1491,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7535578176840431</v>
+        <v>0.7535578176842284</v>
       </c>
       <c r="C9" t="n">
-        <v>0.602617581533247</v>
+        <v>0.6026175815333822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5830712411896835</v>
+        <v>0.5830712411896071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7417225584380031</v>
+        <v>0.7417225584379716</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4105877239844102</v>
+        <v>0.4105877239845013</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3377480062534841</v>
+        <v>-0.3377480062534954</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1188662438401739</v>
+        <v>-0.118866243840238</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5589038640740213</v>
+        <v>0.5589038640739434</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6134867024361121</v>
+        <v>0.6134867024360371</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.3245567365495505</v>
+        <v>-0.3245567365496309</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.2817451096571692</v>
+        <v>-0.2817451096574392</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.08229720286608924</v>
+        <v>-0.08229720286605799</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1406634832547778</v>
+        <v>-0.1406634832535104</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4168344635360777</v>
+        <v>0.416834463539366</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0211971091207629</v>
+        <v>-0.02119710912105135</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.289985888654291</v>
+        <v>0.2899858886558444</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.5463421200213537</v>
+        <v>-0.5463421200212024</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4790736649570885</v>
+        <v>-0.4790736649571083</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>199.2519161777314</v>
+        <v>199.2519161776193</v>
       </c>
     </row>
     <row r="3">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>191.1195370968262</v>
+        <v>191.1195370968054</v>
       </c>
     </row>
     <row r="4">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59.60725432560105</v>
+        <v>59.60725432561956</v>
       </c>
     </row>
     <row r="5">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32.12869996582289</v>
+        <v>32.12869996634706</v>
       </c>
     </row>
     <row r="6">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30.5360607496138</v>
+        <v>30.53606074956842</v>
       </c>
     </row>
     <row r="7">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.295983120215075</v>
+        <v>9.295983120192522</v>
       </c>
     </row>
     <row r="8">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.10414636501064</v>
+        <v>9.104146364925311</v>
       </c>
     </row>
     <row r="9">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.99477799737936</v>
+        <v>6.994777997384872</v>
       </c>
     </row>
     <row r="10">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.982942760076101</v>
+        <v>6.982942760081324</v>
       </c>
     </row>
     <row r="11">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.639371810774557</v>
+        <v>6.639371810776614</v>
       </c>
     </row>
     <row r="12">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.690775882617903</v>
+        <v>5.690775882620359</v>
       </c>
     </row>
     <row r="13">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.21642888372133</v>
+        <v>4.216428883716689</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.197376668621159</v>
+        <v>4.197376668621382</v>
       </c>
     </row>
     <row r="15">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.85117321926123</v>
+        <v>3.851173219257011</v>
       </c>
     </row>
     <row r="16">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.674902196662769</v>
+        <v>2.674902196668388</v>
       </c>
     </row>
     <row r="17">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.149598043061791</v>
+        <v>1.149598043063471</v>
       </c>
     </row>
     <row r="18">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7941295986219931</v>
+        <v>0.7941295986184365</v>
       </c>
     </row>
     <row r="19">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6488257651114805</v>
+        <v>0.6488257651130515</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Boston_MA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Boston_MA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,184 +535,245 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1543233963954251</v>
+        <v>0.1051831252929968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1936404879253369</v>
+        <v>-0.08462536974613004</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2051110330302358</v>
+        <v>-0.1304624732338632</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1926785211999968</v>
+        <v>0.03908663288433299</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1345619920623171</v>
+        <v>0.6108083249258802</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1303662950373952</v>
+        <v>-0.1575265101678554</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2162112459824155</v>
+        <v>-0.3581375324446632</v>
       </c>
       <c r="I2" t="n">
-        <v>0.215307125502474</v>
+        <v>-0.16613368537571</v>
       </c>
       <c r="J2" t="n">
-        <v>0.209653712057064</v>
+        <v>-0.08197617806174323</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1259642829973982</v>
+        <v>-0.1824924213642084</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4016764887644468</v>
+        <v>-0.1455919085718267</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1819046681051888</v>
+        <v>-0.3014006274377962</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1489654047142164</v>
+        <v>-0.1255158100791745</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03461209910814157</v>
+        <v>0.1724843475521117</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2385887816305008</v>
+        <v>-0.1371391146612517</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.06971548073169741</v>
+        <v>0.1570008798123519</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08579786568477163</v>
+        <v>-0.4688933019572611</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01458246788070769</v>
+        <v>-0.2258422362268674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03150034032993806</v>
+        <v>0.27287509594499</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2111768894107416</v>
+        <v>0.3472583018803936</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2290931789118613</v>
+        <v>0.3161332351871595</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1121375748127667</v>
+        <v>0.3051832736671748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6491170328694194</v>
+        <v>-0.1551827350968546</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.03904558042611313</v>
+        <v>-0.143593150069683</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5687209211683576</v>
+        <v>0.5129850095437472</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2649590639045962</v>
+        <v>0.3682237063006327</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2320837854700624</v>
+        <v>0.3452110659591625</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.03621494576812128</v>
+        <v>-0.1170400763176645</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1370812522288123</v>
+        <v>-0.5016201071384097</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.4513746850670455</v>
+        <v>0.4292476625170802</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1893656760175709</v>
+        <v>0.2674335870149586</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1246098560683457</v>
+        <v>0.009796030674962439</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2789742562766145</v>
+        <v>0.4049129947708835</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1693520911374739</v>
+        <v>-0.1807119422581012</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.3006660166567982</v>
+        <v>-0.1325142135723155</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2332604093977869</v>
+        <v>-0.3173261163137872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1469826373348746</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.1185449337510973</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.07480308839375537</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.138854943033829</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.1753302164542312</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05676372660514886</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.2645293161454347</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.1230050642095897</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.1205527746063831</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04634947184928592</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01279034458644349</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.2186912299266583</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.06679142299723563</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.02503198242635815</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.1345387521944824</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.04219370734535695</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.4853923960013655</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5809252087576169</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>organico</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.4940128143212849</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.5596834667934423</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.5909410973116731</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.5912632834085024</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2127722352237545</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4403446366354376</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.5081788196886163</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.6117337779376566</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-0.604759392606341</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.4249454915725157</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.266510147512501</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.4370501281259442</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-0.4211221913702553</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-0.1569703258324347</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-0.6830138707976342</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1687765543334517</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.1753646714653111</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-0.1295170514243963</v>
+      <c r="B5" t="n">
+        <v>-0.412343489596686</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5423277565646801</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.5348418569681505</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.4695140065790477</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3979235014158861</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3271543957734315</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.4542751581552373</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.5333888945933932</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.5343843274242522</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3002816411230843</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.364865984109726</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.3850233599784411</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.4350802847260355</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.0757959043289826</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.6166277586340074</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2554914652665822</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.4701553685913589</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.378281569069694</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,76 +829,76 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.34883720930233</v>
+        <v>18.6046511627907</v>
       </c>
       <c r="C2" t="n">
-        <v>49.03846153846153</v>
+        <v>41.34615384615385</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81.48148148148148</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>82.97872340425532</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="H2" t="n">
-        <v>92.30769230769231</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="I2" t="n">
-        <v>94.73684210526315</v>
+        <v>26.31578947368421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>74.41860465116279</v>
       </c>
       <c r="C3" t="n">
         <v>15.38461538461539</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>11.11111111111111</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="G3" t="n">
-        <v>5.319148936170213</v>
+        <v>60.63829787234043</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.1578947368421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.651162790697675</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="C4" t="n">
-        <v>35.57692307692308</v>
+        <v>16.34615384615385</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -846,15 +907,46 @@
         <v>7.407407407407407</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>12.76595744680851</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.263157894736842</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.651162790697675</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26.92307692307692</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.851851851851852</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="G5" t="n">
         <v>11.70212765957447</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>5.263157894736842</v>
       </c>
     </row>
@@ -1767,7 +1859,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1911,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1937,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1976,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1936,7 +2028,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1962,7 +2054,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2106,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2119,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2132,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2197,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2223,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2275,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2288,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2301,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2353,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2366,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2379,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2418,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2457,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2470,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2509,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2522,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2535,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2600,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2639,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2652,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2678,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2717,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2743,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2756,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2782,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2795,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2847,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2886,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2899,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2951,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2872,7 +2964,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2911,7 +3003,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2950,7 +3042,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2989,7 +3081,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3094,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3067,7 +3159,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3185,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3198,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3211,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3224,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3237,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3276,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3289,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3302,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3315,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3341,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3354,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3367,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3380,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3393,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3419,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3432,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3471,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3497,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3510,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3536,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3562,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3627,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3653,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3666,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3587,7 +3679,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3600,7 +3692,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3705,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3718,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3809,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3835,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3900,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3913,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3978,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3912,7 +4004,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3925,7 +4017,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3951,7 +4043,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3990,7 +4082,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4121,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4068,7 +4160,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4199,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4212,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4225,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4277,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4290,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4224,7 +4316,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4355,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4381,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4394,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4433,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4459,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4550,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4628,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4641,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4588,7 +4680,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4706,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4771,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4797,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4823,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4862,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4888,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4901,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4914,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4927,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4874,7 +4966,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4979,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4992,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4939,7 +5031,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4952,7 +5044,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4965,7 +5057,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4991,7 +5083,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5096,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5122,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5135,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5239,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5212,7 +5304,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5238,7 +5330,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5369,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5421,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5355,7 +5447,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5486,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5499,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5525,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5551,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5472,7 +5564,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5577,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5590,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5603,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5616,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5642,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5655,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5681,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5720,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5733,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5746,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5785,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5811,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5824,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5758,7 +5850,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5889,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5810,7 +5902,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5915,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5928,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5941,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5980,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5953,7 +6045,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5966,7 +6058,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5992,7 +6084,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6097,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6018,7 +6110,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6083,7 +6175,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6188,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6122,7 +6214,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6227,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6240,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6266,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6279,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6318,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6331,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6344,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6383,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6396,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6409,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6422,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6461,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6444,12 +6536,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -6507,12 +6599,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6528,12 +6620,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6570,12 +6662,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -6612,12 +6704,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6696,12 +6788,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6717,12 +6809,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -6864,12 +6956,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -6906,12 +6998,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -7074,12 +7166,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7116,12 +7208,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7229,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7158,12 +7250,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -7221,12 +7313,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -7347,12 +7439,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7410,12 +7502,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -7452,12 +7544,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7473,12 +7565,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7494,12 +7586,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7515,12 +7607,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7536,12 +7628,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7557,12 +7649,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -7599,12 +7691,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7620,12 +7712,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -7641,12 +7733,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7662,12 +7754,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -7683,12 +7775,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -7725,12 +7817,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7767,12 +7859,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7872,12 +7964,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -7935,12 +8027,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -8040,12 +8132,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -8082,12 +8174,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -8208,12 +8300,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -8229,12 +8321,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -8292,12 +8384,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -8355,12 +8447,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8418,12 +8510,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8439,12 +8531,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -8481,12 +8573,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8544,12 +8636,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8586,12 +8678,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8699,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8628,12 +8720,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -8649,12 +8741,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8762,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8733,12 +8825,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -8754,12 +8846,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8775,12 +8867,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8796,12 +8888,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8817,12 +8909,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8859,12 +8951,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8922,12 +9014,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -8985,12 +9077,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9027,12 +9119,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9048,12 +9140,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9090,12 +9182,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9111,12 +9203,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9153,12 +9245,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9174,12 +9266,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9195,12 +9287,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9258,12 +9350,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9342,12 +9434,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9363,12 +9455,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9384,12 +9476,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9405,12 +9497,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9426,12 +9518,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9447,12 +9539,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9489,12 +9581,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9594,12 +9686,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9636,12 +9728,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9678,12 +9770,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9741,12 +9833,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9762,12 +9854,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9867,12 +9959,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9909,12 +10001,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9930,12 +10022,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -9951,12 +10043,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9972,12 +10064,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10014,12 +10106,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10077,12 +10169,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10098,12 +10190,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10119,12 +10211,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -10161,12 +10253,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10182,12 +10274,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10203,12 +10295,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10224,12 +10316,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10245,12 +10337,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10266,12 +10358,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10287,12 +10379,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10308,12 +10400,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10350,12 +10442,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10371,12 +10463,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10413,12 +10505,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -10434,12 +10526,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10476,12 +10568,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -10497,12 +10589,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -10518,12 +10610,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10539,12 +10631,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -10560,12 +10652,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -10581,12 +10673,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -10602,12 +10694,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10623,12 +10715,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10686,12 +10778,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -10707,12 +10799,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10820,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10791,12 +10883,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10854,12 +10946,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10896,12 +10988,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -10917,12 +11009,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10938,12 +11030,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -11022,12 +11114,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -11106,12 +11198,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11127,12 +11219,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -11148,12 +11240,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -11169,12 +11261,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11190,12 +11282,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -11211,12 +11303,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11253,12 +11345,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -11295,12 +11387,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11400,12 +11492,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -11421,12 +11513,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11442,12 +11534,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11463,12 +11555,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11505,12 +11597,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11568,12 +11660,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -11589,12 +11681,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -11610,12 +11702,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -11694,12 +11786,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -11736,12 +11828,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -11904,12 +11996,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12009,12 +12101,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12051,12 +12143,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -12093,12 +12185,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12114,12 +12206,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12135,12 +12227,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -12198,12 +12290,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12311,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12282,12 +12374,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12303,12 +12395,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12324,12 +12416,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12345,12 +12437,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12387,12 +12479,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12408,12 +12500,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12429,12 +12521,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -12450,12 +12542,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -12471,12 +12563,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12492,12 +12584,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12513,12 +12605,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12534,12 +12626,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -12555,12 +12647,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12576,12 +12668,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12618,12 +12710,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12681,12 +12773,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12702,12 +12794,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12723,12 +12815,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12786,12 +12878,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12807,12 +12899,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12828,12 +12920,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12849,12 +12941,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12912,12 +13004,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12933,12 +13025,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12954,12 +13046,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -12975,12 +13067,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12996,12 +13088,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13017,12 +13109,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13038,12 +13130,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13080,12 +13172,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13122,12 +13214,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13143,12 +13235,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13164,12 +13256,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13185,12 +13277,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13227,12 +13319,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13269,12 +13361,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13290,12 +13382,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -13395,12 +13487,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13416,12 +13508,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13479,12 +13571,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13500,12 +13592,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -13521,12 +13613,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13647,12 +13739,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -13668,12 +13760,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -13689,12 +13781,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -13773,12 +13865,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13857,12 +13949,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>gridiron_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13899,12 +13991,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -13968,12 +14060,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -14051,15 +14143,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14072,20 +14164,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14124,12 +14216,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -14176,12 +14268,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -14202,7 +14294,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -14211,11 +14303,11 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14377,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -14306,12 +14398,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -14358,7 +14450,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -14367,11 +14459,11 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14554,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -14488,20 +14580,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -14514,7 +14606,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -14523,11 +14615,11 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14545,15 +14637,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14644,7 +14736,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -14653,11 +14745,11 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14696,7 +14788,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -14705,11 +14797,11 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14753,15 +14845,15 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14800,12 +14892,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -14826,12 +14918,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -14852,20 +14944,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -14935,15 +15027,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14956,7 +15048,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -14965,11 +15057,11 @@
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14982,7 +15074,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -14991,11 +15083,11 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15008,7 +15100,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -15017,11 +15109,11 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15086,20 +15178,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15164,20 +15256,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15190,7 +15282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -15199,11 +15291,11 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15313,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -15247,7 +15339,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -15268,12 +15360,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -15294,12 +15386,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -15320,12 +15412,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -15351,15 +15443,15 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15403,7 +15495,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -15429,15 +15521,15 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15450,20 +15542,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15573,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -15507,15 +15599,15 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15528,7 +15620,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -15537,11 +15629,11 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15554,20 +15646,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15606,20 +15698,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15684,7 +15776,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -15693,11 +15785,11 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15736,20 +15828,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15762,7 +15854,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -15771,11 +15863,11 @@
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15814,20 +15906,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15840,7 +15932,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -15849,11 +15941,11 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15944,12 +16036,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -16001,15 +16093,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16022,7 +16114,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -16031,11 +16123,11 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16048,7 +16140,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -16057,11 +16149,11 @@
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16152,20 +16244,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16178,12 +16270,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -16256,12 +16348,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -16334,20 +16426,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16412,12 +16504,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -16438,12 +16530,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -16495,15 +16587,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16542,7 +16634,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -16551,11 +16643,11 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16568,20 +16660,20 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16620,12 +16712,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -16646,12 +16738,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -16672,12 +16764,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -16698,20 +16790,20 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16724,20 +16816,20 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16802,12 +16894,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -16828,20 +16920,20 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16854,20 +16946,20 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16880,20 +16972,20 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16911,7 +17003,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -16932,7 +17024,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -16941,11 +17033,11 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16958,12 +17050,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -16984,7 +17076,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -16993,11 +17085,11 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17010,7 +17102,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -17019,11 +17111,11 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17036,12 +17128,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -17088,7 +17180,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -17097,11 +17189,11 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17114,20 +17206,20 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17171,15 +17263,15 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17192,20 +17284,20 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17244,12 +17336,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -17270,12 +17362,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -17322,20 +17414,20 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17353,15 +17445,15 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17374,20 +17466,20 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17457,7 +17549,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -17504,7 +17596,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -17513,11 +17605,11 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17556,20 +17648,20 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17582,20 +17674,20 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17608,20 +17700,20 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17634,20 +17726,20 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17660,20 +17752,20 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17686,12 +17778,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E145" t="b">
@@ -17743,7 +17835,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E147" t="b">
@@ -17868,12 +17960,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E152" t="b">
@@ -17920,12 +18012,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E154" t="b">
@@ -17977,7 +18069,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E156" t="b">
@@ -18050,12 +18142,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E159" t="b">
@@ -18076,12 +18168,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E160" t="b">
@@ -18206,12 +18298,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E165" t="b">
@@ -18258,20 +18350,20 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18284,20 +18376,20 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18315,7 +18407,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E169" t="b">
@@ -18336,20 +18428,20 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18393,7 +18485,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E172" t="b">
@@ -18414,7 +18506,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -18423,11 +18515,11 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18471,15 +18563,15 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18492,20 +18584,20 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18523,15 +18615,15 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18570,20 +18662,20 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18601,7 +18693,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E180" t="b">
@@ -18627,7 +18719,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E181" t="b">
@@ -18648,20 +18740,20 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18674,12 +18766,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E183" t="b">
@@ -18700,20 +18792,20 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18731,7 +18823,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E185" t="b">
@@ -18757,15 +18849,15 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18804,20 +18896,20 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18830,12 +18922,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E189" t="b">
@@ -18882,12 +18974,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E191" t="b">
@@ -18913,7 +19005,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E192" t="b">
@@ -18960,20 +19052,20 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18991,15 +19083,15 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19012,12 +19104,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E196" t="b">
@@ -19038,20 +19130,20 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19069,15 +19161,15 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19095,15 +19187,15 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19116,12 +19208,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E200" t="b">
@@ -19147,15 +19239,15 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19168,7 +19260,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -19177,11 +19269,11 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19225,15 +19317,15 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19251,15 +19343,15 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19277,15 +19369,15 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19350,12 +19442,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E209" t="b">
@@ -19433,15 +19525,15 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19485,15 +19577,15 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19506,20 +19598,20 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19532,12 +19624,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E216" t="b">
@@ -19610,7 +19702,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -19619,11 +19711,11 @@
         </is>
       </c>
       <c r="E219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19641,7 +19733,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E220" t="b">
@@ -19662,7 +19754,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -19671,11 +19763,11 @@
         </is>
       </c>
       <c r="E221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19745,7 +19837,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E224" t="b">
@@ -19771,15 +19863,15 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19792,12 +19884,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E226" t="b">
@@ -19823,15 +19915,15 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19844,12 +19936,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E228" t="b">
@@ -19875,15 +19967,15 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19988,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -19905,11 +19997,11 @@
         </is>
       </c>
       <c r="E230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19927,15 +20019,15 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19974,20 +20066,20 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -20026,7 +20118,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -20035,11 +20127,11 @@
         </is>
       </c>
       <c r="E235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20052,7 +20144,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -20061,11 +20153,11 @@
         </is>
       </c>
       <c r="E236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20078,7 +20170,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -20104,12 +20196,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E238" t="b">
@@ -20135,15 +20227,15 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20161,7 +20253,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E240" t="b">
@@ -20182,20 +20274,20 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -20208,7 +20300,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -20217,11 +20309,11 @@
         </is>
       </c>
       <c r="E242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20234,12 +20326,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E243" t="b">
@@ -20312,12 +20404,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E246" t="b">
@@ -20338,20 +20430,20 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20364,12 +20456,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E248" t="b">
@@ -20416,7 +20508,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -20442,7 +20534,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -20473,15 +20565,15 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20494,7 +20586,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -20503,11 +20595,11 @@
         </is>
       </c>
       <c r="E253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20520,20 +20612,20 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -20728,12 +20820,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E262" t="b">
@@ -20858,20 +20950,20 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20910,12 +21002,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E269" t="b">
@@ -20967,7 +21059,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E271" t="b">
@@ -20988,12 +21080,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E272" t="b">
@@ -21019,15 +21111,15 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21092,20 +21184,20 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21123,7 +21215,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E277" t="b">
@@ -21144,7 +21236,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -21153,11 +21245,11 @@
         </is>
       </c>
       <c r="E278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21201,15 +21293,15 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21222,12 +21314,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E281" t="b">
@@ -21248,20 +21340,20 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21279,15 +21371,15 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21300,7 +21392,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -21331,7 +21423,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E285" t="b">
@@ -21352,20 +21444,20 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21378,20 +21470,20 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21404,20 +21496,20 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21430,12 +21522,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E289" t="b">
@@ -21456,12 +21548,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E290" t="b">
@@ -21482,12 +21574,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E291" t="b">
@@ -21513,15 +21605,15 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21534,12 +21626,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E293" t="b">
@@ -21560,12 +21652,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E294" t="b">
@@ -21612,12 +21704,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E296" t="b">
@@ -21690,12 +21782,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E299" t="b">
@@ -21716,12 +21808,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E300" t="b">
@@ -21742,20 +21834,20 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21820,20 +21912,20 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21851,15 +21943,15 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21872,20 +21964,20 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21898,12 +21990,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E307" t="b">
@@ -21950,7 +22042,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -21959,11 +22051,11 @@
         </is>
       </c>
       <c r="E309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21981,15 +22073,15 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22007,15 +22099,15 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22028,12 +22120,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E312" t="b">
@@ -22054,12 +22146,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E313" t="b">
@@ -22080,12 +22172,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E314" t="b">
@@ -22106,20 +22198,20 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22132,20 +22224,20 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22189,7 +22281,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E318" t="b">
@@ -22210,7 +22302,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -22219,11 +22311,11 @@
         </is>
       </c>
       <c r="E319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22241,7 +22333,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E320" t="b">
@@ -22267,7 +22359,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E321" t="b">
@@ -22293,7 +22385,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E322" t="b">
@@ -22319,15 +22411,15 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22340,7 +22432,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -22366,20 +22458,20 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22418,20 +22510,20 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22444,12 +22536,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E328" t="b">
@@ -22470,7 +22562,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -22479,11 +22571,11 @@
         </is>
       </c>
       <c r="E329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22579,7 +22671,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E333" t="b">
@@ -22600,12 +22692,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E334" t="b">
@@ -22626,7 +22718,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -22635,11 +22727,11 @@
         </is>
       </c>
       <c r="E335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22678,20 +22770,20 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22704,12 +22796,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E338" t="b">
@@ -22730,12 +22822,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E339" t="b">
@@ -22782,7 +22874,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -22808,7 +22900,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -22886,20 +22978,20 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22912,12 +23004,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E346" t="b">
@@ -22938,12 +23030,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E347" t="b">
@@ -23016,7 +23108,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -23025,11 +23117,11 @@
         </is>
       </c>
       <c r="E350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23042,20 +23134,20 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -23068,7 +23160,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -23077,11 +23169,11 @@
         </is>
       </c>
       <c r="E352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23186,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -23103,11 +23195,11 @@
         </is>
       </c>
       <c r="E353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23151,15 +23243,15 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23172,7 +23264,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -23181,11 +23273,11 @@
         </is>
       </c>
       <c r="E356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23203,7 +23295,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E357" t="b">
@@ -23226,7 +23318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23253,27 +23345,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.22222222222221</v>
+        <v>79.85611510791367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.71910112359551</v>
+        <v>76.19047619047619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.27272727272727</v>
+        <v>58.14606741573034</v>
       </c>
     </row>
     <row r="5">
@@ -23283,6 +23375,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Code/Polygons_analysis/Boston_MA/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Boston_MA/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,62 +535,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1051831252929968</v>
+        <v>-0.0631376713361386</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08462536974613004</v>
+        <v>-0.05260613388798607</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1304624732338632</v>
+        <v>-0.03717700235370431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03908663288433299</v>
+        <v>-0.08530190619778447</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6108083249258802</v>
+        <v>-0.07999228165791886</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1575265101678554</v>
+        <v>0.0530541558041257</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3581375324446632</v>
+        <v>-0.1831792650100558</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.16613368537571</v>
+        <v>-0.07967058740411077</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.08197617806174323</v>
+        <v>-0.0716800381418623</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1824924213642084</v>
+        <v>0.03315530910421256</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.1455919085718267</v>
+        <v>-0.05865312807179189</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3014006274377962</v>
+        <v>-0.1646846333786084</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1255158100791745</v>
+        <v>-0.006084109364865176</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1724843475521117</v>
+        <v>0.0272972092072828</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.1371391146612517</v>
+        <v>-0.08783637657029371</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1570008798123519</v>
+        <v>0.03657225846081746</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.4688933019572611</v>
+        <v>0.5483291885054222</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2258422362268674</v>
+        <v>0.814790060616735</v>
       </c>
     </row>
     <row r="3">
@@ -600,119 +600,119 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.27287509594499</v>
+        <v>0.1990116505519156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3472583018803936</v>
+        <v>0.2671606178416465</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3161332351871595</v>
+        <v>0.2566713714053843</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3051832736671748</v>
+        <v>0.2415522124622841</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1551827350968546</v>
+        <v>-0.1580704175991528</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.143593150069683</v>
+        <v>-0.1528745978881511</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5129850095437472</v>
+        <v>0.4263426580278214</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3682237063006327</v>
+        <v>0.2992179827149701</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3452110659591625</v>
+        <v>0.2791617206886444</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1170400763176645</v>
+        <v>-0.1357704419559506</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.5016201071384097</v>
+        <v>-0.4929954433442477</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4292476625170802</v>
+        <v>0.3655065402234875</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2674335870149586</v>
+        <v>0.2576233797137037</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009796030674962439</v>
+        <v>-0.007085694888414089</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4049129947708835</v>
+        <v>0.3772477097430081</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1807119422581012</v>
+        <v>-0.1786055651593786</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1325142135723155</v>
+        <v>-0.09502125651277737</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3173261163137872</v>
+        <v>-0.3093925061715712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1469826373348746</v>
+        <v>-0.05890767331823207</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1185449337510973</v>
+        <v>-0.1275775787766699</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07480308839375537</v>
+        <v>-0.1036206384521673</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.138854943033829</v>
+        <v>-0.04990497275001905</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1753302164542312</v>
+        <v>0.1797300933458355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05676372660514886</v>
+        <v>-0.03229860461254157</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.2645293161454347</v>
+        <v>-0.3426987357453761</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1230050642095897</v>
+        <v>-0.1425983064934876</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1205527746063831</v>
+        <v>-0.1010730633025394</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04634947184928592</v>
+        <v>-0.02636570475643953</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01279034458644349</v>
+        <v>0.005706861968574283</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2186912299266583</v>
+        <v>-0.2766780631970615</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.06679142299723563</v>
+        <v>-0.2135675277968313</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.02503198242635815</v>
+        <v>0.04075510103228341</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1345387521944824</v>
+        <v>-0.2311485777790613</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04219370734535695</v>
+        <v>0.1218075394117211</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4853923960013655</v>
+        <v>-0.08085699888377469</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5809252087576169</v>
+        <v>0.05712160262586645</v>
       </c>
     </row>
     <row r="5">
@@ -722,58 +722,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.412343489596686</v>
+        <v>-0.3497497193325473</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5423277565646801</v>
+        <v>-0.4742562471382269</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5348418569681505</v>
+        <v>-0.4876870279471746</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4695140065790477</v>
+        <v>-0.4297882227662134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3979235014158861</v>
+        <v>0.3457203756784409</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3271543957734315</v>
+        <v>0.3223656039665851</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4542751581552373</v>
+        <v>-0.5200658513725694</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5333888945933932</v>
+        <v>-0.5042475392232579</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5343843274242522</v>
+        <v>-0.4985041849268165</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3002816411230843</v>
+        <v>0.3027734293706505</v>
       </c>
       <c r="L5" t="n">
-        <v>1.364865984109726</v>
+        <v>1.255499414605787</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3850233599784411</v>
+        <v>-0.4490295888896863</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4350802847260355</v>
+        <v>-0.4460572546074494</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0757959043289826</v>
+        <v>-0.0500407604867858</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.6166277586340074</v>
+        <v>-0.6127249511150989</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2554914652665822</v>
+        <v>0.2871299880785745</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.4701553685913589</v>
+        <v>-0.4267971548119837</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.378281569069694</v>
+        <v>-0.3668923741684709</v>
       </c>
     </row>
   </sheetData>
@@ -833,28 +833,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.6046511627907</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="C2" t="n">
-        <v>41.34615384615385</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>72.22222222222221</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>14.8936170212766</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="H2" t="n">
-        <v>23.07692307692308</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="I2" t="n">
-        <v>26.31578947368421</v>
+        <v>15.78947368421053</v>
       </c>
     </row>
     <row r="3">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.41860465116279</v>
+        <v>79.06976744186046</v>
       </c>
       <c r="C3" t="n">
-        <v>15.38461538461539</v>
+        <v>24.03846153846154</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -876,16 +876,16 @@
         <v>18.51851851851852</v>
       </c>
       <c r="F3" t="n">
-        <v>7.142857142857142</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>60.63829787234043</v>
+        <v>63.82978723404256</v>
       </c>
       <c r="H3" t="n">
-        <v>69.23076923076923</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="I3" t="n">
-        <v>63.1578947368421</v>
+        <v>68.42105263157895</v>
       </c>
     </row>
     <row r="4">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.325581395348837</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="C4" t="n">
-        <v>16.34615384615385</v>
+        <v>17.30769230769231</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.407407407407407</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="G4" t="n">
-        <v>12.76595744680851</v>
+        <v>13.82978723404255</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="I4" t="n">
-        <v>5.263157894736842</v>
+        <v>10.52631578947368</v>
       </c>
     </row>
     <row r="5">
@@ -929,7 +929,7 @@
         <v>4.651162790697675</v>
       </c>
       <c r="C5" t="n">
-        <v>26.92307692307692</v>
+        <v>31.73076923076923</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>1.851851851851852</v>
       </c>
       <c r="F5" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>11.70212765957447</v>
+        <v>13.82978723404255</v>
       </c>
       <c r="H5" t="n">
         <v>7.692307692307693</v>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6175,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -6536,12 +6536,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -6599,12 +6599,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6620,12 +6620,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6704,12 +6704,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6788,12 +6788,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7166,12 +7166,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7208,12 +7208,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -7229,12 +7229,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7318,7 +7318,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7439,12 +7439,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7502,12 +7502,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -7544,12 +7544,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7565,12 +7565,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7586,12 +7586,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7607,12 +7607,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7628,12 +7628,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7649,12 +7649,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -7691,12 +7691,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7712,12 +7712,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -7733,12 +7733,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7754,12 +7754,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7775,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -7817,12 +7817,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7859,12 +7859,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7964,12 +7964,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -8174,12 +8174,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8447,12 +8447,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8510,12 +8510,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8573,12 +8573,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8636,12 +8636,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8678,12 +8678,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -8699,12 +8699,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8741,12 +8741,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8762,12 +8762,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8825,12 +8825,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -8846,12 +8846,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8867,12 +8867,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8888,12 +8888,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8909,12 +8909,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8951,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9119,12 +9119,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9187,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9245,12 +9245,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9266,12 +9266,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9287,12 +9287,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9350,12 +9350,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9434,12 +9434,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9455,12 +9455,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9497,12 +9497,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9518,12 +9518,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9539,12 +9539,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9581,12 +9581,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9770,12 +9770,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9833,12 +9833,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10001,12 +10001,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10043,12 +10043,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10064,12 +10064,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10106,12 +10106,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10169,12 +10169,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10190,12 +10190,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10211,12 +10211,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -10253,12 +10253,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10274,12 +10274,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10295,12 +10295,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10316,12 +10316,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10337,12 +10337,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10358,12 +10358,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10379,12 +10379,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10400,12 +10400,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10442,12 +10442,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10463,12 +10463,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10510,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10526,12 +10526,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10589,12 +10589,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -10610,12 +10610,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10652,12 +10652,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10694,12 +10694,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10715,12 +10715,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10883,12 +10883,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10946,12 +10946,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -10988,12 +10988,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -11009,12 +11009,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11030,12 +11030,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11198,12 +11198,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11219,12 +11219,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11261,12 +11261,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11303,12 +11303,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11345,12 +11345,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -11387,12 +11387,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -11513,12 +11513,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11534,12 +11534,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11555,12 +11555,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11597,12 +11597,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11686,7 +11686,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12143,12 +12143,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -12185,12 +12185,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12227,12 +12227,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -12290,12 +12290,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12311,12 +12311,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12374,12 +12374,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12395,12 +12395,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12416,12 +12416,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12479,12 +12479,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12500,12 +12500,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12521,12 +12521,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -12542,12 +12542,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12584,12 +12584,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12605,12 +12605,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12626,12 +12626,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12668,12 +12668,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12815,12 +12815,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12878,12 +12878,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12946,7 +12946,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13067,12 +13067,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13088,12 +13088,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13109,12 +13109,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13130,12 +13130,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13214,12 +13214,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13235,12 +13235,12 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13256,12 +13256,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13277,12 +13277,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13319,12 +13319,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13361,12 +13361,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13382,12 +13382,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -13487,12 +13487,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13571,12 +13571,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13613,12 +13613,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13744,7 +13744,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13765,7 +13765,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13865,12 +13865,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13949,12 +13949,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -13991,12 +13991,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_street</t>
+          <t>organico_alto_street</t>
         </is>
       </c>
     </row>
@@ -14065,15 +14065,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -14169,15 +14169,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -14268,20 +14268,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14294,7 +14294,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -14377,15 +14377,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -14606,7 +14606,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -14845,7 +14845,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E32" t="b">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -14923,15 +14923,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -14953,11 +14953,11 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15074,7 +15074,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -15083,11 +15083,11 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -15109,11 +15109,11 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15183,15 +15183,15 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15261,15 +15261,15 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15313,15 +15313,15 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15339,15 +15339,15 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15365,15 +15365,15 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15391,15 +15391,15 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15412,20 +15412,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15443,15 +15443,15 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15495,15 +15495,15 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15521,15 +15521,15 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15542,12 +15542,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -15599,15 +15599,15 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -15620,7 +15620,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -15646,12 +15646,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -15703,15 +15703,15 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15828,20 +15828,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -15854,7 +15854,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -15863,11 +15863,11 @@
         </is>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16041,15 +16041,15 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16093,15 +16093,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -16149,11 +16149,11 @@
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16431,15 +16431,15 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16509,15 +16509,15 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -16587,7 +16587,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -16712,20 +16712,20 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16743,15 +16743,15 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16795,15 +16795,15 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16816,20 +16816,20 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16899,15 +16899,15 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16951,15 +16951,15 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -16972,12 +16972,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -17003,15 +17003,15 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17024,7 +17024,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -17055,15 +17055,15 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17102,7 +17102,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -17419,15 +17419,15 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17445,7 +17445,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -17466,12 +17466,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -17549,15 +17549,15 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -17596,7 +17596,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -17653,15 +17653,15 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E141" t="b">
@@ -17705,15 +17705,15 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17731,15 +17731,15 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17757,15 +17757,15 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17783,15 +17783,15 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -17835,15 +17835,15 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18069,15 +18069,15 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18147,15 +18147,15 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18350,20 +18350,20 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18407,15 +18407,15 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18428,20 +18428,20 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18485,15 +18485,15 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18563,7 +18563,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E175" t="b">
@@ -18589,7 +18589,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E176" t="b">
@@ -18615,15 +18615,15 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18667,15 +18667,15 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18693,15 +18693,15 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18719,15 +18719,15 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18745,15 +18745,15 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18766,20 +18766,20 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E184" t="b">
@@ -18823,15 +18823,15 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18849,7 +18849,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E186" t="b">
@@ -18896,12 +18896,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E188" t="b">
@@ -18927,15 +18927,15 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19005,15 +19005,15 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19083,15 +19083,15 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19109,15 +19109,15 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19161,15 +19161,15 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19213,15 +19213,15 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E201" t="b">
@@ -19369,7 +19369,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E206" t="b">
@@ -19447,15 +19447,15 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E212" t="b">
@@ -19577,15 +19577,15 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19603,7 +19603,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E215" t="b">
@@ -19624,20 +19624,20 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19702,7 +19702,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -19711,11 +19711,11 @@
         </is>
       </c>
       <c r="E219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -19837,15 +19837,15 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19863,15 +19863,15 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19915,7 +19915,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E227" t="b">
@@ -19967,7 +19967,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E229" t="b">
@@ -20019,15 +20019,15 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -20066,12 +20066,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E233" t="b">
@@ -20201,15 +20201,15 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20227,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E239" t="b">
@@ -20253,15 +20253,15 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -20279,15 +20279,15 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20331,15 +20331,15 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20456,7 +20456,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -20465,11 +20465,11 @@
         </is>
       </c>
       <c r="E248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20612,20 +20612,20 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21002,12 +21002,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E269" t="b">
@@ -21059,15 +21059,15 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -21089,11 +21089,11 @@
         </is>
       </c>
       <c r="E272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21111,15 +21111,15 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21184,20 +21184,20 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21215,15 +21215,15 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21293,7 +21293,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E280" t="b">
@@ -21314,20 +21314,20 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21345,7 +21345,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E282" t="b">
@@ -21392,7 +21392,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -21423,15 +21423,15 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21449,7 +21449,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E286" t="b">
@@ -21475,15 +21475,15 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21501,15 +21501,15 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21548,20 +21548,20 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21574,20 +21574,20 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21605,15 +21605,15 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21652,20 +21652,20 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -21791,11 +21791,11 @@
         </is>
       </c>
       <c r="E299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21834,12 +21834,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E301" t="b">
@@ -21917,15 +21917,15 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22151,15 +22151,15 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22177,15 +22177,15 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22203,7 +22203,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E315" t="b">
@@ -22224,12 +22224,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E316" t="b">
@@ -22281,15 +22281,15 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22333,15 +22333,15 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22354,20 +22354,20 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22385,15 +22385,15 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22411,7 +22411,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E323" t="b">
@@ -22463,15 +22463,15 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22510,12 +22510,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E327" t="b">
@@ -22536,20 +22536,20 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22562,7 +22562,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -22571,11 +22571,11 @@
         </is>
       </c>
       <c r="E329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22671,15 +22671,15 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22692,20 +22692,20 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22770,12 +22770,12 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E337" t="b">
@@ -22827,15 +22827,15 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22874,7 +22874,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -23004,7 +23004,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -23013,11 +23013,11 @@
         </is>
       </c>
       <c r="E346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23139,15 +23139,15 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23160,7 +23160,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -23169,11 +23169,11 @@
         </is>
       </c>
       <c r="E352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E355" t="b">
@@ -23295,7 +23295,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E357" t="b">
@@ -23345,17 +23345,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.85611510791367</v>
+        <v>75.64102564102564</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.19047619047619</v>
+        <v>72.30769230769231</v>
       </c>
     </row>
     <row r="4">
@@ -23365,23 +23365,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.14606741573034</v>
+        <v>55.89887640449438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B6" t="n">
